--- a/biology/Zoologie/Alcyonium_digitatum/Alcyonium_digitatum.xlsx
+++ b/biology/Zoologie/Alcyonium_digitatum/Alcyonium_digitatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alcyonium digitatum est un organisme marin proche des coraux que l'on trouve dans les régions côtières du nord de l'océan Atlantique. 
 Comme chez les autres membres de l'ordre des Alcyonacea, parfois nommés « coraux mous », les polypes sont ici englobés dans une masse charnue. Les colonies vivent fixées sur des substrats durs, roche en place, pierres ou coquilles. Elles sont de forme et d'étendue très variable et leur couleur varie du blanc à l'orange. Atteignant exceptionnellement le niveau des basses-mers, l'espèce peut vivre jusqu'à une cinquantaine de mètres de profondeur.
